--- a/Glossary.xlsx
+++ b/Glossary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\gitroot\bash-space\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3712B8C4-F9BA-4B9C-A7A7-D836B6B8276D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BB13DE-13AA-4860-AB35-A6629607A3E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10370" yWindow="1460" windowWidth="13310" windowHeight="8190" xr2:uid="{30F33D35-7325-44F9-A580-F3532A27B2AF}"/>
+    <workbookView xWindow="8320" yWindow="1930" windowWidth="13310" windowHeight="8190" xr2:uid="{30F33D35-7325-44F9-A580-F3532A27B2AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Bash" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
   <si>
     <t>Term</t>
   </si>
@@ -291,6 +291,39 @@
   </si>
   <si>
     <t>like $@ but lumps every argument together into a single one</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>while loop, a shell command. While, do, done.</t>
+  </si>
+  <si>
+    <t>command that always returns a success exit status</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>delay execution for a specific amount of time</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>shifts positional parameters</t>
+  </si>
+  <si>
+    <t>vagrant ssh</t>
+  </si>
+  <si>
+    <t>connect to vm</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>log out of vm</t>
   </si>
 </sst>
 </file>
@@ -653,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53171F6A-2999-4D69-B9EE-7696F287DD81}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -975,6 +1008,46 @@
         <v>77</v>
       </c>
     </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="b">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A38" r:id="rId1" xr:uid="{4310B857-94D3-4B90-B405-C8FF4FBB8108}"/>
@@ -985,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D3AE41-8760-4F93-9A2E-40D55C6D539F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1013,6 +1086,22 @@
         <v>31</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
